--- a/消防/05_日报/519工作汇报.xlsx
+++ b/消防/05_日报/519工作汇报.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\物联网\每日汇报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\物联网\githup\消防\05_日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="8370" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017年05月19日测试情况汇报</t>
+    <t>05月19日测试情况汇报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +469,7 @@
   <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F11"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
